--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217EC6F-304A-408E-9B95-1A78DE6F96DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB13F4A-DD1C-40B1-8425-64ED8EA932E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -1009,9 +1009,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -1062,29 +1062,29 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -1092,112 +1092,112 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>157</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>147</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>170</v>
       </c>
@@ -1220,12 +1220,12 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>9650</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -1998,9 +1998,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>9187.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -2775,9 +2775,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -3552,9 +3552,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -4329,9 +4329,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -5104,9 +5104,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>967.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -5881,15 +5881,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -6744,9 +6744,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -7428,7 +7428,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -7549,14 +7549,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -7761,7 +7761,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -7905,7 +7905,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -8083,7 +8083,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -8143,7 +8143,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -8413,14 +8413,14 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -8567,7 +8567,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -8829,7 +8829,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -8889,7 +8889,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -8918,7 +8918,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -8977,7 +8977,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -9067,7 +9067,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -9127,7 +9127,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -9200,7 +9200,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -9277,9 +9277,9 @@
       <selection activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -9953,7 +9953,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -10044,14 +10044,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -10082,7 +10082,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -10285,7 +10285,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -10342,7 +10342,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -10371,7 +10371,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -10400,7 +10400,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -10430,7 +10430,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -10490,7 +10490,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -10520,7 +10520,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -10578,7 +10578,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -10608,7 +10608,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -10668,7 +10668,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>24181.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -10908,14 +10908,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -10946,7 +10946,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -10975,7 +10975,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -11004,7 +11004,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -11033,7 +11033,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -11062,7 +11062,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -11091,7 +11091,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11149,7 +11149,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -11204,7 +11204,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -11292,7 +11292,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -11382,7 +11382,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -11411,7 +11411,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -11440,7 +11440,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -11470,7 +11470,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -11530,7 +11530,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -11620,7 +11620,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -11645,7 +11645,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -11668,7 +11668,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -11693,7 +11693,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -11766,18 +11766,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -11808,7 +11808,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -11866,7 +11866,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -11895,7 +11895,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -11953,7 +11953,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -12011,7 +12011,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -12040,7 +12040,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -12126,7 +12126,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -12186,7 +12186,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -12216,7 +12216,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -12246,7 +12246,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -12275,7 +12275,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -12334,7 +12334,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -12364,7 +12364,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -12394,7 +12394,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -12424,7 +12424,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -12484,7 +12484,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -12509,7 +12509,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -12532,7 +12532,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -12557,7 +12557,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>9056.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -12634,15 +12634,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="9" max="9" width="10.8203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -12673,7 +12673,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -12731,7 +12731,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -12760,7 +12760,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -12789,7 +12789,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -12818,7 +12818,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -12847,7 +12847,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -12905,7 +12905,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -12933,7 +12933,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -12991,7 +12991,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -13021,7 +13021,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -13051,7 +13051,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -13111,7 +13111,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -13169,7 +13169,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -13199,7 +13199,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -13229,7 +13229,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -13259,7 +13259,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -13349,7 +13349,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -13374,7 +13374,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -13397,7 +13397,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -13422,7 +13422,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -13495,18 +13495,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -13537,7 +13537,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -13566,7 +13566,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -13595,7 +13595,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -13653,7 +13653,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -13682,7 +13682,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -13711,7 +13711,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -13740,7 +13740,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -13767,7 +13767,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -13797,7 +13797,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -13826,7 +13826,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -13855,7 +13855,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -13885,7 +13885,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -13915,7 +13915,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -13945,7 +13945,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -13975,7 +13975,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -14004,7 +14004,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -14033,7 +14033,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -14063,7 +14063,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -14153,7 +14153,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -14183,7 +14183,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -14213,7 +14213,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -14238,7 +14238,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -14261,7 +14261,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -14286,7 +14286,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>16425</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -14363,12 +14363,12 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.46875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -15044,7 +15044,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -15066,7 +15066,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>7481.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -15143,9 +15143,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -15801,7 +15801,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -15843,7 +15843,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>9318.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -15917,12 +15917,12 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -16576,7 +16576,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -16596,7 +16596,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -16618,7 +16618,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>8793.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -16695,9 +16695,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -17351,7 +17351,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -17371,7 +17371,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -17393,7 +17393,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>12318.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -17466,18 +17466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -17566,7 +17566,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -17595,7 +17595,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -17624,7 +17624,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -17653,7 +17653,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -17682,7 +17682,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -17740,7 +17740,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -17768,7 +17768,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -17797,7 +17797,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -17826,7 +17826,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -17856,7 +17856,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -17886,7 +17886,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -17916,7 +17916,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -17946,7 +17946,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -17975,7 +17975,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -18004,7 +18004,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -18034,7 +18034,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -18064,7 +18064,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -18094,7 +18094,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -18124,7 +18124,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -18154,7 +18154,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -18184,7 +18184,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -18209,7 +18209,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -18232,7 +18232,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -18257,7 +18257,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>21831.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -18334,9 +18334,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -19012,7 +19012,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -19034,7 +19034,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>7875</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -19111,15 +19111,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="6" max="6" width="11.17578125" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -19150,7 +19150,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -19179,7 +19179,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -19208,7 +19208,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -19237,7 +19237,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -19266,7 +19266,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -19295,7 +19295,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -19353,7 +19353,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -19382,7 +19382,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -19410,7 +19410,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -19439,7 +19439,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -19468,7 +19468,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -19498,7 +19498,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -19528,7 +19528,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -19558,7 +19558,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -19588,7 +19588,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -19617,7 +19617,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -19646,7 +19646,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -19676,7 +19676,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -19706,7 +19706,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -19736,7 +19736,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -19766,7 +19766,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -19796,7 +19796,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -19826,7 +19826,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -19851,7 +19851,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -19874,7 +19874,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -19899,7 +19899,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>15762.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -19973,12 +19973,12 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -20034,7 +20034,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -20061,7 +20061,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -20088,7 +20088,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -20142,7 +20142,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -20385,7 +20385,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -20413,7 +20413,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -20467,7 +20467,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -20551,7 +20551,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -20579,7 +20579,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -20658,7 +20658,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -20679,7 +20679,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -20702,7 +20702,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>1282.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -20775,13 +20775,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -20837,7 +20837,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -20918,7 +20918,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -20945,7 +20945,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -21026,7 +21026,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -21106,7 +21106,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -21190,7 +21190,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -21218,7 +21218,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -21245,7 +21245,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -21328,7 +21328,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -21440,7 +21440,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -21463,7 +21463,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -21484,7 +21484,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -21507,7 +21507,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>2352.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -21584,9 +21584,9 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -21650,7 +21650,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -21734,7 +21734,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -21761,7 +21761,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -21842,7 +21842,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -21870,7 +21870,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -21897,7 +21897,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -21924,7 +21924,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -21952,7 +21952,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -21980,7 +21980,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -22008,7 +22008,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -22036,7 +22036,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -22063,7 +22063,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -22118,7 +22118,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -22146,7 +22146,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -22174,7 +22174,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -22202,7 +22202,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -22258,7 +22258,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -22281,7 +22281,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -22302,7 +22302,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -22325,7 +22325,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>41980</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -22399,12 +22399,12 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -22433,7 +22433,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -23009,7 +23009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -23058,7 +23058,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -23078,7 +23078,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -23100,7 +23100,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>9187.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -23177,9 +23177,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -23208,7 +23208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -23420,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -23631,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -23841,7 +23841,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -23861,7 +23861,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -23883,7 +23883,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -23897,7 +23897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -23960,14 +23960,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -23998,7 +23998,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -24027,7 +24027,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -24056,7 +24056,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -24085,7 +24085,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -24114,7 +24114,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -24143,7 +24143,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -24172,7 +24172,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -24201,7 +24201,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -24230,7 +24230,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -24258,7 +24258,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -24287,7 +24287,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -24316,7 +24316,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -24346,7 +24346,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -24376,7 +24376,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -24406,7 +24406,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -24436,7 +24436,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -24465,7 +24465,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -24494,7 +24494,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -24524,7 +24524,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -24554,7 +24554,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -24584,7 +24584,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -24614,7 +24614,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -24644,7 +24644,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -24674,7 +24674,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -24699,7 +24699,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -24722,7 +24722,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -24747,7 +24747,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -24761,7 +24761,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -24789,7 +24789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>9675</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -24824,12 +24824,12 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.46875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -24997,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -25124,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -25258,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -25310,7 +25310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -25364,7 +25364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -25494,7 +25494,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -25514,7 +25514,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -25536,7 +25536,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -25564,7 +25564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -25587,7 +25587,7 @@
         <v>4462.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -25613,9 +25613,9 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -25722,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -25850,7 +25850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -25954,7 +25954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -26271,7 +26271,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -26291,7 +26291,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -26313,7 +26313,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>11137.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -26390,9 +26390,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -26421,7 +26421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -26525,7 +26525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -26577,7 +26577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -26625,7 +26625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -26916,7 +26916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -26970,7 +26970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -26997,7 +26997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -27046,7 +27046,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -27066,7 +27066,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -27088,7 +27088,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -27102,7 +27102,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -27130,7 +27130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -27165,9 +27165,9 @@
       <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -27222,7 +27222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -27248,7 +27248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -27274,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -27378,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -27479,7 +27479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -27533,7 +27533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -27693,7 +27693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -27774,7 +27774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -27823,7 +27823,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -27843,7 +27843,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -27865,7 +27865,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>194</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -5,18 +5,18 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB13F4A-DD1C-40B1-8425-64ED8EA932E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E053C62-1AE2-41ED-A658-3B82A2F4FC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
-    <sheet name="None" sheetId="10" r:id="rId2"/>
-    <sheet name="Wildschwein" sheetId="38" r:id="rId3"/>
-    <sheet name="Schlange" sheetId="39" r:id="rId4"/>
+    <sheet name="Wildschwein" sheetId="38" r:id="rId2"/>
+    <sheet name="Schlange" sheetId="39" r:id="rId3"/>
+    <sheet name="None" sheetId="10" r:id="rId4"/>
     <sheet name="Starker Wolf" sheetId="37" r:id="rId5"/>
     <sheet name="Seeschlange" sheetId="36" r:id="rId6"/>
     <sheet name="Krokodil" sheetId="35" r:id="rId7"/>
@@ -48,7 +48,7 @@
     <sheet name="Phoenix" sheetId="22" r:id="rId33"/>
     <sheet name="Strauß" sheetId="26" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="196">
   <si>
     <t>Luck</t>
   </si>
@@ -9270,11 +9270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9313,7 +9313,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -9339,13 +9339,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
@@ -9365,13 +9365,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -9391,7 +9391,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -9417,7 +9417,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -9443,7 +9443,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -9480,7 +9480,9 @@
       <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
@@ -9493,13 +9495,13 @@
         <v>62</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -9518,13 +9520,13 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -9542,13 +9544,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -9580,7 +9582,7 @@
         <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -9595,7 +9597,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -9622,7 +9624,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -9649,13 +9651,13 @@
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -9676,7 +9678,7 @@
       </c>
       <c r="B16" s="1">
         <f>B8+B9</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -9702,7 +9704,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -9728,7 +9730,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -9755,13 +9757,13 @@
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>93</v>
@@ -9782,13 +9784,13 @@
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>96</v>
@@ -9809,13 +9811,13 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>100</v>
@@ -9836,7 +9838,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -9863,7 +9865,7 @@
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -9890,7 +9892,7 @@
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -9958,19 +9960,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -9980,7 +9982,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>125</v>
@@ -9994,13 +9996,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -10008,13 +10010,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>191</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -10022,7 +10024,15 @@
         <v>194</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
     </row>
@@ -17466,7 +17476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -18327,11 +18337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18370,7 +18380,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -18389,6 +18399,9 @@
       </c>
       <c r="H2">
         <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -18396,13 +18409,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
@@ -18415,6 +18428,9 @@
       </c>
       <c r="H3">
         <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -18422,13 +18438,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -18448,7 +18464,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -18474,7 +18490,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -18500,7 +18516,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -18526,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -18538,7 +18554,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -18552,13 +18568,13 @@
         <v>62</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -18577,13 +18593,13 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -18601,13 +18617,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -18639,7 +18655,7 @@
         <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -18654,7 +18670,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -18681,7 +18697,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -18708,13 +18724,13 @@
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -18735,7 +18751,7 @@
       </c>
       <c r="B16" s="1">
         <f>B8+B9</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -18761,7 +18777,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -18814,13 +18830,13 @@
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>93</v>
@@ -18841,13 +18857,13 @@
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>210</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>96</v>
@@ -18868,13 +18884,13 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>100</v>
@@ -18895,7 +18911,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -18907,7 +18923,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -18922,7 +18938,7 @@
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>75</v>
+        <v>22.5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -18949,7 +18965,7 @@
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>75</v>
+        <v>22.5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -19017,19 +19033,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="1">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -19039,7 +19055,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>125</v>
@@ -19053,13 +19069,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
       </c>
       <c r="F29">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -19067,13 +19083,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>191</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -19082,7 +19098,7 @@
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>7875</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -23170,11 +23186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23213,7 +23229,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -23232,9 +23248,6 @@
       </c>
       <c r="H2">
         <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -23242,7 +23255,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -23261,9 +23274,6 @@
       </c>
       <c r="H3">
         <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -23271,13 +23281,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -23297,7 +23307,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -23323,7 +23333,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -23349,7 +23359,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -23375,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -23386,9 +23396,7 @@
       <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
@@ -23426,7 +23434,7 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -23456,7 +23464,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -23503,7 +23511,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -23530,7 +23538,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -23557,7 +23565,7 @@
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -23584,7 +23592,7 @@
       </c>
       <c r="B16" s="1">
         <f>B8+B9</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -23610,7 +23618,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -23636,7 +23644,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -23663,7 +23671,7 @@
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -23690,13 +23698,13 @@
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>62.999999999999993</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>96</v>
@@ -23717,7 +23725,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -23744,7 +23752,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -23756,7 +23764,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -23771,7 +23779,7 @@
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -23798,7 +23806,7 @@
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -23866,19 +23874,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -23902,13 +23910,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -23922,7 +23930,7 @@
         <v>191</v>
       </c>
       <c r="F30">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -23930,8 +23938,8 @@
         <v>194</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4200</v>
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -23956,8 +23964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E053C62-1AE2-41ED-A658-3B82A2F4FC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C749B85A-5E71-4AE1-A681-3D5E8914B40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -44,11 +44,13 @@
     <sheet name="Elefant" sheetId="25" r:id="rId29"/>
     <sheet name="Nashorn" sheetId="20" r:id="rId30"/>
     <sheet name="Katze" sheetId="21" r:id="rId31"/>
-    <sheet name="Falke" sheetId="23" r:id="rId32"/>
-    <sheet name="Phoenix" sheetId="22" r:id="rId33"/>
-    <sheet name="Strauß" sheetId="26" r:id="rId34"/>
+    <sheet name="Ratte Bio Waffe" sheetId="41" r:id="rId32"/>
+    <sheet name="Falke" sheetId="23" r:id="rId33"/>
+    <sheet name="Phoenix" sheetId="22" r:id="rId34"/>
+    <sheet name="Strauß" sheetId="26" r:id="rId35"/>
+    <sheet name="Erwachtes Ross" sheetId="40" r:id="rId36"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="197">
   <si>
     <t>Luck</t>
   </si>
@@ -567,9 +569,6 @@
     <t>Schildkröte</t>
   </si>
   <si>
-    <t>Giraffen</t>
-  </si>
-  <si>
     <t>Krake</t>
   </si>
   <si>
@@ -658,6 +657,12 @@
   </si>
   <si>
     <t>RareBonus</t>
+  </si>
+  <si>
+    <t>Lootprofil</t>
+  </si>
+  <si>
+    <t>Grundloyalty</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1021,7 @@
         <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,7 +1029,7 @@
         <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,10 +1037,10 @@
         <v>117</v>
       </c>
       <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
         <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,7 +1064,7 @@
         <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1089,7 +1094,7 @@
         <v>137</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1164,41 +1169,46 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1217,12 +1227,12 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1794,7 +1804,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -1876,8 +1886,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1940,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -1957,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -1965,7 +1979,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -1974,7 +1988,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>5000</v>
@@ -1995,7 +2009,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2202,7 +2216,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -2571,7 +2585,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -2653,8 +2667,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2717,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -2734,7 +2752,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>48</v>
@@ -2742,7 +2760,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -2751,7 +2769,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2772,7 +2790,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3430,8 +3448,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3494,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -3511,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -3519,7 +3541,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -3528,7 +3550,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3549,7 +3571,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3756,7 +3778,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -4125,7 +4147,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -4207,8 +4229,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4271,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -4288,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -4296,7 +4322,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -4305,7 +4331,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4326,7 +4352,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4982,8 +5008,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5046,7 +5076,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -5063,7 +5093,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>22</v>
@@ -5071,7 +5101,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -5080,7 +5110,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5101,7 +5131,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5308,7 +5338,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -5677,7 +5707,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -5759,8 +5789,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5823,7 +5857,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -5840,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -5848,7 +5882,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -5857,7 +5891,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5878,10 +5912,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
@@ -6613,8 +6647,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -6686,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -6703,7 +6741,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -6711,7 +6749,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -6720,7 +6758,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -6741,7 +6779,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7424,8 +7462,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -7508,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>26</v>
@@ -7516,7 +7558,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -7525,7 +7567,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -7546,10 +7588,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -8282,8 +8324,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -8355,7 +8401,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -8372,7 +8418,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>26</v>
@@ -8380,7 +8426,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -8389,7 +8435,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -8409,11 +8455,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -9146,8 +9192,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -9219,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -9236,7 +9286,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>32</v>
@@ -9244,7 +9294,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -9253,7 +9303,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>6000</v>
@@ -9274,7 +9324,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9932,8 +9982,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -9988,7 +10042,7 @@
         <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -9996,7 +10050,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -10013,7 +10067,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>25</v>
@@ -10021,16 +10075,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>7875</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -10051,10 +10105,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -10787,8 +10841,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -10860,7 +10918,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -10877,7 +10935,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>67</v>
@@ -10885,7 +10943,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -10894,7 +10952,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>12500</v>
@@ -10915,10 +10973,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -11649,8 +11707,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -11722,7 +11784,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -11739,7 +11801,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -11747,7 +11809,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -11756,7 +11818,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>2000</v>
@@ -11777,10 +11839,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -12513,8 +12575,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -12586,7 +12652,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -12603,7 +12669,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>33</v>
@@ -12611,7 +12677,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -12620,7 +12686,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -12640,16 +12706,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -13378,8 +13444,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -13451,7 +13521,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -13468,7 +13538,7 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>33</v>
@@ -13476,7 +13546,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -13485,7 +13555,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -13506,10 +13576,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -13738,7 +13808,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -13795,7 +13865,7 @@
         <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>68</v>
@@ -14242,8 +14312,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -14315,7 +14389,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -14332,7 +14406,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>46</v>
@@ -14340,7 +14414,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -14349,7 +14423,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>12000</v>
@@ -14369,8 +14443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15031,8 +15105,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -15095,7 +15173,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -15112,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -15120,7 +15198,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -15129,7 +15207,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -15150,7 +15228,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15808,8 +15886,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -15872,7 +15954,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -15889,7 +15971,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -15897,7 +15979,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -15906,7 +15988,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -15927,7 +16009,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16583,8 +16665,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -16647,7 +16733,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -16664,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>46</v>
@@ -16672,7 +16758,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -16681,7 +16767,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -16702,7 +16788,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17358,8 +17444,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -17422,7 +17512,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -17439,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>62</v>
@@ -17447,7 +17537,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -17456,7 +17546,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>3000</v>
@@ -17477,10 +17567,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -18068,7 +18158,7 @@
         <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -18098,7 +18188,7 @@
         <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -18128,7 +18218,7 @@
         <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -18158,7 +18248,7 @@
         <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -18188,7 +18278,7 @@
         <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -18213,8 +18303,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -18286,7 +18380,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -18303,7 +18397,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -18311,7 +18405,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -18320,7 +18414,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>7000</v>
@@ -18341,7 +18435,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18401,7 +18495,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -18430,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -18923,7 +19017,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -19005,8 +19099,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -19069,7 +19167,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -19086,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -19094,7 +19192,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -19103,7 +19201,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -19124,14 +19222,14 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19716,7 +19814,7 @@
         <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -19746,7 +19844,7 @@
         <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -19776,7 +19874,7 @@
         <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -19806,7 +19904,7 @@
         <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -19836,7 +19934,7 @@
         <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -19861,8 +19959,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -19934,7 +20036,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -19951,7 +20053,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>59</v>
@@ -19959,7 +20061,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -19968,7 +20070,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>5000</v>
@@ -19989,7 +20091,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I32" sqref="A7:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20670,7 +20772,9 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
@@ -20737,7 +20841,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -20754,7 +20858,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -20762,7 +20866,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -20771,7 +20875,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -20788,11 +20892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD239A4-CEA1-4FC2-8759-E01887BB056D}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20831,7 +20935,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -20851,20 +20955,19 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
@@ -20878,20 +20981,19 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -20905,20 +21007,19 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>52</v>
@@ -20932,14 +21033,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -20959,14 +21059,13 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -20986,7 +21085,6 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -20999,13 +21097,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -21013,34 +21111,30 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -21048,13 +21142,13 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -21066,20 +21160,19 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -21093,7 +21186,6 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -21106,13 +21198,13 @@
         <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -21120,7 +21212,6 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -21128,7 +21219,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -21140,7 +21231,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -21148,7 +21239,6 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -21156,7 +21246,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -21176,7 +21266,6 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -21184,7 +21273,7 @@
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -21204,7 +21293,6 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -21212,6 +21300,798 @@
       </c>
       <c r="B16" s="1">
         <f>B8+B9</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>12.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>12.5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>1147.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -21475,8 +22355,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -21559,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -21567,7 +22451,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -21576,828 +22460,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>75</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
-        <v>75</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="1">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="1">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="1">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B8+B9</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>150</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="1">
-        <f>$B$17*0.2</f>
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1">
-        <f>$B$17*0.7</f>
-        <v>105</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="1">
-        <f>$B$17*0.25</f>
-        <v>37.5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1">
-        <f>$B$17*0.25</f>
-        <v>37.5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="1">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>41980</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32">
-        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -22411,16 +22477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -22448,13 +22514,16 @@
       <c r="I1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -22474,19 +22543,25 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
@@ -22500,19 +22575,23 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -22526,19 +22605,20 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>52</v>
@@ -22552,13 +22632,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -22578,13 +22659,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -22604,92 +22686,102 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -22703,8 +22795,9 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -22715,13 +22808,13 @@
         <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -22729,14 +22822,15 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -22748,7 +22842,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -22756,14 +22850,15 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -22783,14 +22878,15 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -22810,20 +22906,21 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="1">
         <f>B8+B9</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>86</v>
@@ -22837,13 +22934,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -22863,13 +22961,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -22889,20 +22988,21 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>93</v>
@@ -22916,20 +23016,21 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>96</v>
@@ -22943,20 +23044,21 @@
       <c r="H20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>100</v>
@@ -22970,14 +23072,15 @@
       <c r="H21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -22989,7 +23092,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -22997,14 +23100,15 @@
       <c r="H22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -23016,7 +23120,7 @@
         <v>106</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>107</v>
@@ -23024,14 +23128,15 @@
       <c r="H23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -23043,7 +23148,7 @@
         <v>109</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>110</v>
@@ -23051,8 +23156,9 @@
       <c r="H24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -23071,21 +23177,26 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>113</v>
@@ -23093,58 +23204,60 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="1">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
       </c>
       <c r="F29">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -23152,27 +23265,27 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9187.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -23185,11 +23298,1538 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>9187.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C57FFC-0B79-42D2-B56F-78B65FB5B484}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>350</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>244.99999999999997</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1">
+        <f>$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1">
+        <f>$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -23927,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -23935,7 +25575,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
@@ -23944,7 +25584,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -23965,10 +25605,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -24226,7 +25866,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
@@ -24701,8 +26341,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -24774,7 +26418,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -24791,7 +26435,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>42</v>
@@ -24799,7 +26443,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -24808,7 +26452,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>4500</v>
@@ -24829,7 +26473,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24892,7 +26536,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -24921,7 +26565,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -24950,7 +26594,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -25417,7 +27061,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -25499,8 +27143,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -25563,7 +27211,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -25580,7 +27228,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -25588,7 +27236,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -25597,7 +27245,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -25617,8 +27265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26146,7 +27794,7 @@
         <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -26173,7 +27821,7 @@
         <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -26194,13 +27842,13 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -26227,7 +27875,7 @@
         <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -26254,7 +27902,7 @@
         <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -26276,8 +27924,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -26340,7 +27992,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -26357,7 +28009,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>52</v>
@@ -26365,7 +28017,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -26374,7 +28026,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>3000</v>
@@ -26395,7 +28047,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26969,7 +28621,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -27051,8 +28703,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -27115,7 +28771,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -27132,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -27140,7 +28796,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -27149,7 +28805,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -27169,8 +28825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27746,7 +29402,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -27828,8 +29484,12 @@
       <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -27892,7 +29552,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>132</v>
@@ -27909,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -27917,7 +29577,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -27926,7 +29586,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>0</v>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C749B85A-5E71-4AE1-A681-3D5E8914B40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BF683-CD69-476E-B4EB-7AF7EA4CD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="Spinne" sheetId="6" r:id="rId19"/>
     <sheet name="Greif" sheetId="5" r:id="rId20"/>
     <sheet name="Wolf" sheetId="8" r:id="rId21"/>
-    <sheet name="Wildpferd" sheetId="1" r:id="rId22"/>
+    <sheet name="Pferd" sheetId="1" r:id="rId22"/>
     <sheet name="RahKariPferd" sheetId="3" r:id="rId23"/>
     <sheet name="Skorpion" sheetId="19" r:id="rId24"/>
     <sheet name="Kuh" sheetId="15" r:id="rId25"/>
@@ -44,13 +44,12 @@
     <sheet name="Elefant" sheetId="25" r:id="rId29"/>
     <sheet name="Nashorn" sheetId="20" r:id="rId30"/>
     <sheet name="Katze" sheetId="21" r:id="rId31"/>
-    <sheet name="Ratte Bio Waffe" sheetId="41" r:id="rId32"/>
-    <sheet name="Falke" sheetId="23" r:id="rId33"/>
-    <sheet name="Phoenix" sheetId="22" r:id="rId34"/>
-    <sheet name="Strauß" sheetId="26" r:id="rId35"/>
-    <sheet name="Erwachtes Ross" sheetId="40" r:id="rId36"/>
+    <sheet name="Falke" sheetId="23" r:id="rId32"/>
+    <sheet name="Phoenix" sheetId="22" r:id="rId33"/>
+    <sheet name="Strauß" sheetId="26" r:id="rId34"/>
+    <sheet name="Erwachtes Ross" sheetId="40" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="197">
   <si>
     <t>Luck</t>
   </si>
@@ -11838,7 +11837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -20892,782 +20891,6 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD239A4-CEA1-4FC2-8759-E01887BB056D}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>70</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="1">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="1">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="1">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B8+B9</f>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="1">
-        <f>$B$17*0.2</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1">
-        <f>$B$17*0.7</f>
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="1">
-        <f>$B$17*0.25</f>
-        <v>12.5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1">
-        <f>$B$17*0.25</f>
-        <v>12.5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="1">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1147.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -22476,7 +21699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -23298,7 +22521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -24077,7 +23300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C57FFC-0B79-42D2-B56F-78B65FB5B484}">
   <dimension ref="A1:I30"/>
   <sheetViews>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BF683-CD69-476E-B4EB-7AF7EA4CD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5478647-8D25-4110-967B-EDAFAC4E6398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <sheet name="Strauß" sheetId="26" r:id="rId34"/>
     <sheet name="Erwachtes Ross" sheetId="40" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5910,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6074,7 +6074,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4200</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -11837,7 +11837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52531DDC-F0EC-432C-9462-722A0A427AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABC3745-8B54-477C-B10F-EEEC18CFB169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -10807,7 +10807,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11610,7 +11610,7 @@
         <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>10500</v>
+        <v>13875</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
@@ -15128,7 +15128,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22430,7 +22430,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0535A5-9927-4031-8906-29AC9343BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943FE1-878F-4C2D-842F-F3FBE08E22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="209">
   <si>
     <t>Luck</t>
   </si>
@@ -699,6 +699,12 @@
   <si>
     <t>Fußkick</t>
   </si>
+  <si>
+    <t>-brennen</t>
+  </si>
+  <si>
+    <t>- Brennen</t>
+  </si>
 </sst>
 </file>
 
@@ -781,7 +787,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,6 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -12573,8 +12580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F52EAA-42AE-4FDA-AC67-88243F815507}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12643,7 +12650,9 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -13435,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1653BEC8-7770-4F47-BCDC-1026C854511D}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13505,7 +13514,9 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>

--- a/OrbisGame/Container/Data/Tiere.xlsx
+++ b/OrbisGame/Container/Data/Tiere.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4164A-A58B-40B8-8AA1-CAB0A6F6BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873310DB-DADB-4DAC-900E-54633A5F18B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index" sheetId="12" r:id="rId1"/>
+    <sheet name="Index" sheetId="46" r:id="rId1"/>
     <sheet name="None" sheetId="10" r:id="rId2"/>
     <sheet name="Taube" sheetId="42" r:id="rId3"/>
     <sheet name="Affe" sheetId="41" r:id="rId4"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5097" uniqueCount="209">
   <si>
     <t>Luck</t>
   </si>
@@ -469,13 +469,7 @@
     <t>Trainingswert</t>
   </si>
   <si>
-    <t>Affe</t>
-  </si>
-  <si>
     <t>Esel</t>
-  </si>
-  <si>
-    <t>RahKari Pferd</t>
   </si>
   <si>
     <t>Skorpion</t>
@@ -559,16 +553,7 @@
     <t>Papagei</t>
   </si>
   <si>
-    <t>Pinguin</t>
-  </si>
-  <si>
-    <t>Schildkröte</t>
-  </si>
-  <si>
     <t>Krake</t>
-  </si>
-  <si>
-    <t>Wal</t>
   </si>
   <si>
     <t>Ratte</t>
@@ -583,18 +568,6 @@
     <t>Seeschlange</t>
   </si>
   <si>
-    <t>Delfin</t>
-  </si>
-  <si>
-    <t>Chamäleon</t>
-  </si>
-  <si>
-    <t>Frosch</t>
-  </si>
-  <si>
-    <t>(Giftfrösche)</t>
-  </si>
-  <si>
     <t>Schlange</t>
   </si>
   <si>
@@ -605,9 +578,6 @@
   </si>
   <si>
     <t>Giftstich</t>
-  </si>
-  <si>
-    <t>Ideen</t>
   </si>
   <si>
     <t>Entenvogel</t>
@@ -634,9 +604,6 @@
     <t>Für Menschen tödlich</t>
   </si>
   <si>
-    <t>Starker Wolf</t>
-  </si>
-  <si>
     <t>Kralle</t>
   </si>
   <si>
@@ -647,12 +614,6 @@
   </si>
   <si>
     <t>Strauß</t>
-  </si>
-  <si>
-    <t>Preis</t>
-  </si>
-  <si>
-    <t>RareBonus</t>
   </si>
   <si>
     <t>Lootprofil</t>
@@ -670,9 +631,6 @@
     <t>Stein</t>
   </si>
   <si>
-    <t>Erwachtes Ross</t>
-  </si>
-  <si>
     <t>Taube</t>
   </si>
   <si>
@@ -685,18 +643,6 @@
     <t>SpinnenGiftbiss</t>
   </si>
   <si>
-    <t>Reitspinne klein</t>
-  </si>
-  <si>
-    <t>Reitspinne mittel</t>
-  </si>
-  <si>
-    <t>Reitspinne groß</t>
-  </si>
-  <si>
-    <t>Reitspinne riesig</t>
-  </si>
-  <si>
     <t>Fußkick</t>
   </si>
   <si>
@@ -704,6 +650,60 @@
   </si>
   <si>
     <t>- Brennen</t>
+  </si>
+  <si>
+    <t>Preis Kaiserreich</t>
+  </si>
+  <si>
+    <t>Preis Rah Kari</t>
+  </si>
+  <si>
+    <t>Reitspinne riesig</t>
+  </si>
+  <si>
+    <t>Reitspinne groß</t>
+  </si>
+  <si>
+    <t>Reitspinne mittel</t>
+  </si>
+  <si>
+    <t>Reitspinne klein</t>
+  </si>
+  <si>
+    <t>Erwachtes Ross</t>
+  </si>
+  <si>
+    <t>Starker Wolf</t>
+  </si>
+  <si>
+    <t>RahKari Pferd</t>
+  </si>
+  <si>
+    <t>Delfin</t>
+  </si>
+  <si>
+    <t>Wal</t>
+  </si>
+  <si>
+    <t>Schildkröte</t>
+  </si>
+  <si>
+    <t>Pinguin</t>
+  </si>
+  <si>
+    <t>(Giftfrösche)</t>
+  </si>
+  <si>
+    <t>Frosch</t>
+  </si>
+  <si>
+    <t>Chamäleon</t>
+  </si>
+  <si>
+    <t>Ideen</t>
+  </si>
+  <si>
+    <t>Affe</t>
   </si>
 </sst>
 </file>
@@ -732,14 +732,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -757,6 +749,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -782,10 +782,10 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -794,8 +794,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1080,252 +1080,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4BA328-208A-41C8-B7C1-6840D1498FAF}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.05859375" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>12000</v>
+      </c>
+      <c r="C2">
+        <v>9000</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>35000</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>75000</v>
+      </c>
+      <c r="C4">
+        <v>55000</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5">
+        <v>8000</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>4500</v>
+      </c>
+      <c r="C6">
+        <v>5500</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>158</v>
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>168</v>
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>32000</v>
+      </c>
+      <c r="C8">
+        <v>12000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>115</v>
       </c>
+      <c r="B9">
+        <v>94000</v>
+      </c>
+      <c r="C9">
+        <v>94000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="B12">
+        <v>1500</v>
+      </c>
+      <c r="C12">
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>6000</v>
+      </c>
+      <c r="C13">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14">
+        <v>25000</v>
+      </c>
+      <c r="C14">
+        <v>22000</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>9000</v>
+      </c>
+      <c r="C15">
+        <v>12000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>42000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>8500</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>4500</v>
+      </c>
+      <c r="C18">
+        <v>3200</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="B19">
+        <v>80000</v>
+      </c>
+      <c r="C19">
+        <v>80000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>121</v>
       </c>
+      <c r="B20">
+        <v>4500</v>
+      </c>
+      <c r="C20">
+        <v>6000</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="B21">
+        <v>15000</v>
+      </c>
+      <c r="C21">
+        <v>13000</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>164</v>
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>157</v>
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23">
+        <v>1300</v>
+      </c>
+      <c r="C23">
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>172</v>
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24">
+        <v>2500</v>
+      </c>
+      <c r="C24">
+        <v>2500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
-        <v>167</v>
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25">
+        <v>2200</v>
+      </c>
+      <c r="C25">
+        <v>2200</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="B26">
+        <v>900</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>116</v>
       </c>
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <v>900</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="s">
-        <v>185</v>
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>5500</v>
+      </c>
+      <c r="C28">
+        <v>8000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
-        <v>189</v>
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>11000</v>
+      </c>
+      <c r="C29">
+        <v>8000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="B30">
+        <v>35000</v>
+      </c>
+      <c r="C30">
+        <v>32000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="s">
-        <v>156</v>
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>18000</v>
+      </c>
+      <c r="C31">
+        <v>22000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>3000</v>
+      </c>
+      <c r="C33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="B34">
+        <v>3200</v>
+      </c>
+      <c r="C34">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+        <v>184</v>
+      </c>
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+        <v>196</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+        <v>195</v>
+      </c>
+      <c r="B38">
+        <v>9000</v>
+      </c>
+      <c r="C38">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+        <v>194</v>
+      </c>
+      <c r="B39">
+        <v>15000</v>
+      </c>
+      <c r="C39">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="B40">
+        <v>30000</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
-    <sortCondition ref="A1:A34"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1334,7 +1567,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1630,8 +1863,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1908,7 +2141,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -1991,10 +2224,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -2070,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -2078,19 +2311,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1080</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2340,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2406,8 +2638,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2684,7 +2916,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -2767,10 +2999,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -2846,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -2854,19 +3086,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>990</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +3115,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3183,8 +3414,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3210,7 +3441,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -3237,7 +3468,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -3264,7 +3495,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -3291,7 +3522,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -3317,7 +3548,7 @@
       <c r="B17" s="1">
         <v>170</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -3343,7 +3574,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -3370,7 +3601,7 @@
         <f>$B$17*0.2</f>
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -3397,7 +3628,7 @@
         <f>$B$17*0.7</f>
         <v>118.99999999999999</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -3424,7 +3655,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -3451,7 +3682,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -3461,7 +3692,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -3478,7 +3709,7 @@
         <f>$B$17*0.25</f>
         <v>42.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -3505,7 +3736,7 @@
         <f>$B$17*0.25</f>
         <v>42.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -3531,7 +3762,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -3544,10 +3775,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -3557,7 +3788,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -3577,7 +3808,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -3594,7 +3825,7 @@
       <c r="B28" s="3">
         <v>7</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -3624,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -3632,19 +3863,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9650</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -3662,7 +3892,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3869,7 +4099,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -3960,8 +4190,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3987,7 +4217,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -4014,7 +4244,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -4041,7 +4271,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -4068,7 +4298,7 @@
         <f>B8+B9</f>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -4094,7 +4324,7 @@
       <c r="B17" s="1">
         <v>450</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -4120,7 +4350,7 @@
       <c r="B18" s="1">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -4147,7 +4377,7 @@
         <f>$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -4174,7 +4404,7 @@
         <f>$B$17*0.7</f>
         <v>315</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -4201,7 +4431,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -4228,7 +4458,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -4238,7 +4468,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -4255,7 +4485,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -4282,7 +4512,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -4308,7 +4538,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -4321,10 +4551,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -4334,7 +4564,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -4354,7 +4584,7 @@
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
@@ -4373,7 +4603,7 @@
       <c r="B28" s="3">
         <v>250</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -4403,7 +4633,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>48</v>
@@ -4411,19 +4641,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9187.5</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -4441,7 +4670,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4739,8 +4968,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>33</v>
@@ -4766,7 +4995,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -4793,7 +5022,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -4820,7 +5049,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -4847,7 +5076,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -4873,7 +5102,7 @@
       <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -4899,7 +5128,7 @@
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -4926,7 +5155,7 @@
         <f>$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -4953,7 +5182,7 @@
         <f>$B$17*0.7</f>
         <v>105</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -4980,7 +5209,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -5007,7 +5236,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -5017,7 +5246,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -5034,7 +5263,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -5061,7 +5290,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -5087,7 +5316,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -5100,10 +5329,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -5113,7 +5342,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -5133,7 +5362,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
@@ -5152,7 +5381,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -5182,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -5190,19 +5419,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1350</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
@@ -5220,7 +5448,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5427,7 +5655,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -5518,8 +5746,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -5545,7 +5773,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -5572,7 +5800,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -5599,7 +5827,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -5626,7 +5854,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -5652,7 +5880,7 @@
       <c r="B17" s="1">
         <v>950</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -5678,7 +5906,7 @@
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -5705,7 +5933,7 @@
         <f>$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -5732,7 +5960,7 @@
         <f>$B$17*0.7</f>
         <v>665</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -5759,7 +5987,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -5786,7 +6014,7 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -5796,7 +6024,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -5813,7 +6041,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -5840,7 +6068,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -5866,7 +6094,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -5879,10 +6107,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -5892,7 +6120,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -5912,7 +6140,7 @@
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -5929,7 +6157,7 @@
       <c r="B28" s="3">
         <v>40</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -5959,7 +6187,7 @@
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -5967,19 +6195,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>8400</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +6224,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6293,8 +6520,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -6320,7 +6547,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -6347,7 +6574,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -6374,7 +6601,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -6401,7 +6628,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -6427,7 +6654,7 @@
       <c r="B17" s="1">
         <v>190</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -6453,7 +6680,7 @@
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -6480,7 +6707,7 @@
         <f>$B$17*0.2</f>
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -6507,7 +6734,7 @@
         <f>$B$17*0.7</f>
         <v>133</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -6534,7 +6761,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -6561,7 +6788,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -6571,7 +6798,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -6588,7 +6815,7 @@
         <f>$B$17*0.25</f>
         <v>47.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -6615,7 +6842,7 @@
         <f>$B$17*0.25</f>
         <v>47.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -6641,7 +6868,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -6654,10 +6881,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -6667,7 +6894,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -6687,7 +6914,7 @@
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -6704,7 +6931,7 @@
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -6734,7 +6961,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>22</v>
@@ -6742,19 +6969,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4350</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +6998,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6979,7 +7205,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -7070,8 +7296,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -7097,7 +7323,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -7124,7 +7350,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -7151,7 +7377,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -7178,7 +7404,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -7204,7 +7430,7 @@
       <c r="B17" s="1">
         <v>130</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -7230,7 +7456,7 @@
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -7257,7 +7483,7 @@
         <f>$B$17*0.2</f>
         <v>26</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -7284,7 +7510,7 @@
         <f>$B$17*0.7</f>
         <v>91</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -7311,7 +7537,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>26</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -7338,7 +7564,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -7348,7 +7574,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -7365,7 +7591,7 @@
         <f>$B$17*0.25</f>
         <v>32.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -7392,7 +7618,7 @@
         <f>$B$17*0.25</f>
         <v>32.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -7418,7 +7644,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -7431,10 +7657,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -7444,7 +7670,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -7464,7 +7690,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -7481,7 +7707,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -7511,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -7519,19 +7745,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>967.5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -7549,7 +7774,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7885,8 +8110,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -7915,7 +8140,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -7945,7 +8170,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -7975,7 +8200,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -8005,7 +8230,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -8034,7 +8259,7 @@
       <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -8063,7 +8288,7 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -8093,7 +8318,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -8123,7 +8348,7 @@
         <f>$B$17*0.7</f>
         <v>140</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -8153,7 +8378,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -8183,7 +8408,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -8213,7 +8438,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -8243,7 +8468,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -8272,7 +8497,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -8285,7 +8510,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>128</v>
@@ -8301,7 +8526,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -8324,7 +8549,7 @@
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -8344,7 +8569,7 @@
       <c r="B28" s="3">
         <v>45</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -8374,7 +8599,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -8382,19 +8607,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4350</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -8412,7 +8636,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8722,8 +8946,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>46</v>
@@ -8750,7 +8974,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -8778,7 +9002,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -8806,7 +9030,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -8834,7 +9058,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -8861,7 +9085,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -8888,7 +9112,7 @@
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -8916,7 +9140,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -8944,7 +9168,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -8972,7 +9196,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -9000,7 +9224,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -9028,7 +9252,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -9056,7 +9280,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -9083,7 +9307,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -9096,7 +9320,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>121</v>
@@ -9110,7 +9334,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -9131,7 +9355,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -9149,7 +9373,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -9179,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>26</v>
@@ -9187,19 +9411,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1260</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -9217,7 +9440,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9513,8 +9736,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -9950,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -9958,7 +10181,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
@@ -9967,7 +10190,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9988,7 +10211,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10325,8 +10548,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -10355,7 +10578,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -10385,7 +10608,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -10415,7 +10638,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -10445,7 +10668,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -10474,7 +10697,7 @@
       <c r="B17" s="1">
         <v>325</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -10503,7 +10726,7 @@
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -10533,7 +10756,7 @@
         <f>$B$17*0.2</f>
         <v>65</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -10563,7 +10786,7 @@
         <f>$B$17*0.7</f>
         <v>227.49999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -10593,7 +10816,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -10623,7 +10846,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -10653,7 +10876,7 @@
         <f>$B$17*0.25</f>
         <v>81.25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -10683,7 +10906,7 @@
         <f>$B$17*0.25</f>
         <v>81.25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -10712,7 +10935,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -10725,10 +10948,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -10741,7 +10964,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -10764,7 +10987,7 @@
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -10784,7 +11007,7 @@
       <c r="B28" s="3">
         <v>200</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -10814,7 +11037,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>26</v>
@@ -10822,19 +11045,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4875</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -10851,8 +11073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749768C8-B131-4FF2-A550-15BF0650554B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11087,7 +11309,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -11116,7 +11338,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -11192,8 +11414,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -11222,7 +11444,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -11252,7 +11474,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -11282,7 +11504,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -11312,7 +11534,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -11341,7 +11563,7 @@
       <c r="B17" s="1">
         <v>250</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -11370,7 +11592,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -11400,7 +11622,7 @@
         <f>$B$17*0.2</f>
         <v>50</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -11430,7 +11652,7 @@
         <f>$B$17*0.7</f>
         <v>175</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -11446,7 +11668,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -11460,7 +11682,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>50</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -11476,7 +11698,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -11490,7 +11712,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -11520,7 +11742,7 @@
         <f>$B$17*0.25</f>
         <v>62.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -11550,7 +11772,7 @@
         <f>$B$17*0.25</f>
         <v>62.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -11579,7 +11801,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -11589,10 +11811,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -11608,7 +11830,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -11631,7 +11853,7 @@
       <c r="B27" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -11651,7 +11873,7 @@
       <c r="B28" s="3">
         <v>65</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -11681,7 +11903,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>23</v>
@@ -11689,19 +11911,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>10500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -11714,7 +11935,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11949,7 +12170,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -11978,7 +12199,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -12054,8 +12275,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -12084,7 +12305,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -12114,7 +12335,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -12144,7 +12365,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -12174,7 +12395,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -12203,7 +12424,7 @@
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -12232,7 +12453,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -12262,7 +12483,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -12292,7 +12513,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -12308,7 +12529,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -12322,7 +12543,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -12338,7 +12559,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -12352,7 +12573,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -12382,7 +12603,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -12412,7 +12633,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -12441,7 +12662,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -12451,10 +12672,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -12470,7 +12691,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -12493,7 +12714,7 @@
       <c r="B27" s="2">
         <v>1.4</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -12513,7 +12734,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -12543,7 +12764,7 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>32</v>
@@ -12551,19 +12772,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>13875</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -12581,7 +12801,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -12650,8 +12870,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>208</v>
+      <c r="I2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -12818,7 +13038,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -12847,7 +13067,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -12923,8 +13143,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -12953,7 +13173,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -12983,7 +13203,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -13013,7 +13233,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -13043,7 +13263,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -13072,7 +13292,7 @@
       <c r="B17" s="1">
         <v>950</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -13101,7 +13321,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -13131,7 +13351,7 @@
         <f>$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -13161,7 +13381,7 @@
         <f>$B$17*0.7</f>
         <v>665</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -13177,7 +13397,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -13191,7 +13411,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -13207,7 +13427,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -13221,7 +13441,7 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -13237,7 +13457,7 @@
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -13251,7 +13471,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -13281,7 +13501,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -13297,7 +13517,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -13310,7 +13530,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -13320,10 +13540,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -13339,7 +13559,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -13362,7 +13582,7 @@
       <c r="B27" s="2">
         <v>1.3</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -13382,7 +13602,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -13412,7 +13632,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>49</v>
@@ -13420,19 +13640,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>17025</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -13445,7 +13664,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13514,8 +13733,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>207</v>
+      <c r="I2" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -13682,7 +13901,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -13711,7 +13930,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -13787,8 +14006,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -13817,7 +14036,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -13847,7 +14066,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -13877,7 +14096,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -13907,7 +14126,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -13936,7 +14155,7 @@
       <c r="B17" s="1">
         <v>2500</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -13965,7 +14184,7 @@
       <c r="B18" s="1">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -13995,7 +14214,7 @@
         <f>$B$17*0.2</f>
         <v>500</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -14025,7 +14244,7 @@
         <f>$B$17*0.7</f>
         <v>1750</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -14041,7 +14260,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -14055,7 +14274,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>500</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -14071,7 +14290,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -14085,7 +14304,7 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -14101,7 +14320,7 @@
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -14115,7 +14334,7 @@
         <f>$B$17*0.25</f>
         <v>625</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -14131,7 +14350,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -14145,7 +14364,7 @@
         <f>$B$17*0.25</f>
         <v>625</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -14161,7 +14380,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -14174,7 +14393,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -14184,10 +14403,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -14203,7 +14422,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -14226,7 +14445,7 @@
       <c r="B27" s="2">
         <v>0.7</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -14246,7 +14465,7 @@
       <c r="B28" s="3">
         <v>540</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -14276,7 +14495,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>60</v>
@@ -14284,19 +14503,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>19387.5</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -14309,7 +14527,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -14646,8 +14864,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -14676,7 +14894,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -14706,7 +14924,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -14736,7 +14954,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -14766,7 +14984,7 @@
         <f>B8+B9</f>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -14795,7 +15013,7 @@
       <c r="B17" s="1">
         <v>475</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -14824,7 +15042,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -14854,7 +15072,7 @@
         <f>$B$17*0.2</f>
         <v>95</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -14884,7 +15102,7 @@
         <f>$B$17*0.7</f>
         <v>332.5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -14914,7 +15132,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>95</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -14944,7 +15162,7 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -14974,7 +15192,7 @@
         <f>$B$17*0.25</f>
         <v>118.75</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -15004,7 +15222,7 @@
         <f>$B$17*0.25</f>
         <v>118.75</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -15033,7 +15251,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -15046,7 +15264,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>115</v>
@@ -15062,7 +15280,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -15085,7 +15303,7 @@
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -15105,7 +15323,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -15135,7 +15353,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>67</v>
@@ -15143,19 +15361,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>26675</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>12500</v>
+        <v>94000</v>
       </c>
     </row>
   </sheetData>
@@ -15173,7 +15390,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15508,8 +15725,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -15538,7 +15755,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -15568,7 +15785,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -15598,7 +15815,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -15628,7 +15845,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -15657,7 +15874,7 @@
       <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -15686,7 +15903,7 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -15716,7 +15933,7 @@
         <f>$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -15746,7 +15963,7 @@
         <f>$B$17*0.7</f>
         <v>105</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -15776,7 +15993,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -15806,7 +16023,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -15836,7 +16053,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -15866,7 +16083,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -15895,7 +16112,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -15908,7 +16125,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>118</v>
@@ -15924,7 +16141,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -15947,7 +16164,7 @@
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -15967,7 +16184,7 @@
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -15997,7 +16214,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -16005,19 +16222,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>6575</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -16035,7 +16251,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16372,8 +16588,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -16402,7 +16618,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -16432,7 +16648,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -16462,7 +16678,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -16492,7 +16708,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -16521,7 +16737,7 @@
       <c r="B17" s="1">
         <v>400</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -16550,7 +16766,7 @@
       <c r="B18" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -16580,7 +16796,7 @@
         <f>$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -16610,7 +16826,7 @@
         <f>$B$17*0.7</f>
         <v>280</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -16640,7 +16856,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -16670,7 +16886,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -16700,7 +16916,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -16730,7 +16946,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -16759,7 +16975,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -16772,10 +16988,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -16788,7 +17004,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -16811,7 +17027,7 @@
       <c r="B27" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -16831,7 +17047,7 @@
       <c r="B28" s="3">
         <v>180</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -16861,7 +17077,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>33</v>
@@ -16869,19 +17085,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9056.25</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -16899,7 +17114,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17237,8 +17452,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -17267,7 +17482,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -17297,7 +17512,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -17327,7 +17542,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -17357,7 +17572,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -17386,7 +17601,7 @@
       <c r="B17" s="1">
         <v>425</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -17415,7 +17630,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -17445,7 +17660,7 @@
         <f>$B$17*0.2</f>
         <v>85</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -17475,7 +17690,7 @@
         <f>$B$17*0.7</f>
         <v>297.5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -17505,7 +17720,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>85</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -17535,7 +17750,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -17565,7 +17780,7 @@
         <f>$B$17*0.25</f>
         <v>106.25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -17595,7 +17810,7 @@
         <f>$B$17*0.25</f>
         <v>106.25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -17624,7 +17839,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -17637,7 +17852,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>114</v>
@@ -17653,7 +17868,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -17676,7 +17891,7 @@
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -17696,7 +17911,7 @@
       <c r="B28" s="3">
         <v>210</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -17726,7 +17941,7 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>33</v>
@@ -17734,19 +17949,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9581.25</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
@@ -17764,7 +17978,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17996,7 +18210,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -18053,7 +18267,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>66</v>
@@ -18101,8 +18315,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -18131,7 +18345,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -18161,7 +18375,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -18191,7 +18405,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -18221,7 +18435,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -18250,7 +18464,7 @@
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -18279,7 +18493,7 @@
       <c r="B18" s="1">
         <v>22</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -18309,7 +18523,7 @@
         <f>$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -18339,7 +18553,7 @@
         <f>$B$17*0.7</f>
         <v>420</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -18369,7 +18583,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -18399,7 +18613,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -18429,7 +18643,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -18459,7 +18673,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -18488,7 +18702,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -18501,10 +18715,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -18517,7 +18731,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -18540,7 +18754,7 @@
       <c r="B27" s="2">
         <v>1.9</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -18560,7 +18774,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -18590,7 +18804,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>46</v>
@@ -18598,7 +18812,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -18607,7 +18821,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>12000</v>
@@ -18628,7 +18842,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -18938,8 +19152,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>25</v>
@@ -18966,7 +19180,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -18994,7 +19208,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -19022,7 +19236,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -19050,7 +19264,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -19077,7 +19291,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -19104,7 +19318,7 @@
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -19132,7 +19346,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -19160,7 +19374,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -19188,7 +19402,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -19216,7 +19430,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -19226,7 +19440,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -19244,7 +19458,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -19272,7 +19486,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -19299,7 +19513,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -19312,10 +19526,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -19326,7 +19540,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -19347,7 +19561,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -19365,7 +19579,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -19395,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -19403,16 +19617,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>2307.5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>800</v>
@@ -19428,7 +19641,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -19638,7 +19851,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -19729,8 +19942,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -19756,7 +19969,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -19783,7 +19996,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -19810,7 +20023,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -19837,7 +20050,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -19863,7 +20076,7 @@
       <c r="B17" s="1">
         <v>450</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -19889,7 +20102,7 @@
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -19916,7 +20129,7 @@
         <f>$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -19943,7 +20156,7 @@
         <f>$B$17*0.7</f>
         <v>315</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -19970,7 +20183,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -19997,7 +20210,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -20007,7 +20220,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -20024,7 +20237,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -20051,7 +20264,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -20077,7 +20290,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -20090,10 +20303,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -20103,7 +20316,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -20123,7 +20336,7 @@
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -20140,7 +20353,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -20170,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -20178,19 +20391,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>7481.25</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -20208,7 +20420,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -20415,7 +20627,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -20506,8 +20718,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -20533,7 +20745,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -20560,7 +20772,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -20587,7 +20799,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -20614,7 +20826,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -20640,7 +20852,7 @@
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -20666,7 +20878,7 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -20693,7 +20905,7 @@
         <f>$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -20720,7 +20932,7 @@
         <f>$B$17*0.7</f>
         <v>420</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -20747,7 +20959,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -20774,7 +20986,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -20784,7 +20996,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -20801,7 +21013,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -20828,7 +21040,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -20854,7 +21066,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -20867,10 +21079,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -20880,7 +21092,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -20900,7 +21112,7 @@
       <c r="B27" s="2">
         <v>1.6</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -20917,7 +21129,7 @@
       <c r="B28" s="3">
         <v>150</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -20947,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -20955,19 +21167,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9318.75</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -20985,7 +21196,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -21281,8 +21492,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -21308,7 +21519,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -21335,7 +21546,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -21362,7 +21573,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -21389,7 +21600,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -21415,7 +21626,7 @@
       <c r="B17" s="1">
         <v>800</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -21441,7 +21652,7 @@
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -21468,7 +21679,7 @@
         <f>$B$17*0.2</f>
         <v>160</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -21495,7 +21706,7 @@
         <f>$B$17*0.7</f>
         <v>560</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -21522,7 +21733,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>160</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -21549,7 +21760,7 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -21559,7 +21770,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -21576,7 +21787,7 @@
         <f>$B$17*0.25</f>
         <v>200</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -21603,7 +21814,7 @@
         <f>$B$17*0.25</f>
         <v>200</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -21629,7 +21840,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -21642,10 +21853,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -21655,7 +21866,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -21675,7 +21886,7 @@
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -21692,7 +21903,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -21722,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>46</v>
@@ -21730,19 +21941,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>8793.75</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -21760,7 +21970,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22056,8 +22266,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -22083,7 +22293,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -22110,7 +22320,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -22137,7 +22347,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -22164,7 +22374,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -22190,7 +22400,7 @@
       <c r="B17" s="1">
         <v>650</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -22216,7 +22426,7 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -22243,7 +22453,7 @@
         <f>$B$17*0.2</f>
         <v>130</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -22270,7 +22480,7 @@
         <f>$B$17*0.7</f>
         <v>454.99999999999994</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -22297,7 +22507,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>130</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -22324,7 +22534,7 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -22334,7 +22544,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -22351,7 +22561,7 @@
         <f>$B$17*0.25</f>
         <v>162.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -22378,7 +22588,7 @@
         <f>$B$17*0.25</f>
         <v>162.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -22404,7 +22614,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -22417,10 +22627,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -22430,7 +22640,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -22450,7 +22660,7 @@
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -22467,7 +22677,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -22497,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>62</v>
@@ -22505,19 +22715,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>13368.75</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>3000</v>
+        <v>32000</v>
       </c>
     </row>
   </sheetData>
@@ -22535,7 +22744,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22767,7 +22976,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -22796,7 +23005,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -22872,8 +23081,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -22902,7 +23111,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -22932,7 +23141,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -22962,7 +23171,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -22992,7 +23201,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -23021,7 +23230,7 @@
       <c r="B17" s="1">
         <v>5000</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -23050,7 +23259,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -23080,7 +23289,7 @@
         <f>$B$17*0.2</f>
         <v>1000</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -23110,7 +23319,7 @@
         <f>$B$17*0.7</f>
         <v>3500</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -23126,7 +23335,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -23140,7 +23349,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>1000</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -23156,7 +23365,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -23170,7 +23379,7 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -23180,13 +23389,13 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -23200,7 +23409,7 @@
         <f>$B$17*0.25</f>
         <v>1250</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -23216,7 +23425,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -23230,7 +23439,7 @@
         <f>$B$17*0.25</f>
         <v>1250</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -23246,7 +23455,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -23259,7 +23468,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -23272,10 +23481,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -23288,7 +23497,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -23311,7 +23520,7 @@
       <c r="B27" s="2">
         <v>1.4</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -23331,7 +23540,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -23361,7 +23570,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -23369,19 +23578,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>21831.25</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>7000</v>
+        <v>55000</v>
       </c>
     </row>
   </sheetData>
@@ -23399,7 +23607,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -23632,7 +23840,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -23661,7 +23869,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -23737,8 +23945,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -23767,7 +23975,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -23797,7 +24005,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -23827,7 +24035,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -23857,7 +24065,7 @@
         <f>B8+B9</f>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -23886,7 +24094,7 @@
       <c r="B17" s="1">
         <v>1950</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -23915,7 +24123,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -23945,7 +24153,7 @@
         <f>$B$17*0.2</f>
         <v>390</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -23975,7 +24183,7 @@
         <f>$B$17*0.7</f>
         <v>1365</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -23991,7 +24199,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -24005,7 +24213,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>390</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -24021,7 +24229,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -24035,7 +24243,7 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -24045,13 +24253,13 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -24065,7 +24273,7 @@
         <f>$B$17*0.25</f>
         <v>487.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -24081,7 +24289,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -24095,7 +24303,7 @@
         <f>$B$17*0.25</f>
         <v>487.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -24111,7 +24319,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -24124,7 +24332,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -24137,10 +24345,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -24153,7 +24361,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -24176,7 +24384,7 @@
       <c r="B27" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -24196,7 +24404,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -24226,7 +24434,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>59</v>
@@ -24234,19 +24442,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>15762.5</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>5000</v>
+        <v>42000</v>
       </c>
     </row>
   </sheetData>
@@ -24264,7 +24471,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24572,8 +24779,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -24600,7 +24807,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -24628,7 +24835,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -24656,7 +24863,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -24684,7 +24891,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -24711,7 +24918,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -24738,7 +24945,7 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -24766,7 +24973,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -24794,7 +25001,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -24822,7 +25029,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -24850,7 +25057,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -24860,7 +25067,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -24878,7 +25085,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -24906,7 +25113,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -24933,7 +25140,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -24946,7 +25153,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -24958,7 +25165,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -24979,7 +25186,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -24997,7 +25204,7 @@
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -25012,7 +25219,7 @@
       <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="E29" t="s">
         <v>129</v>
       </c>
@@ -25028,7 +25235,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -25036,19 +25243,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1282.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -25066,7 +25272,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25376,8 +25582,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>25</v>
@@ -25404,7 +25610,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -25432,7 +25638,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -25460,7 +25666,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -25488,7 +25694,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -25515,7 +25721,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -25542,7 +25748,7 @@
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -25570,7 +25776,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -25598,7 +25804,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -25626,7 +25832,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -25654,7 +25860,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -25664,7 +25870,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -25682,7 +25888,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -25710,7 +25916,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -25737,7 +25943,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -25750,10 +25956,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -25764,7 +25970,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -25785,7 +25991,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -25803,7 +26009,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -25833,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -25841,19 +26047,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>2352.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>800</v>
+        <v>5500</v>
       </c>
     </row>
   </sheetData>
@@ -25871,7 +26076,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25905,7 +26110,7 @@
         <v>120</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -25934,10 +26139,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -25967,7 +26172,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -26150,7 +26355,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>66</v>
@@ -26194,8 +26399,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>30</v>
@@ -26222,7 +26427,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -26250,7 +26455,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -26278,7 +26483,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -26306,7 +26511,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -26333,7 +26538,7 @@
       <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -26360,7 +26565,7 @@
       <c r="B18" s="1">
         <v>40</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -26388,7 +26593,7 @@
         <f>$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -26416,7 +26621,7 @@
         <f>$B$17*0.7</f>
         <v>105</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -26444,7 +26649,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -26472,7 +26677,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -26482,7 +26687,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -26500,7 +26705,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -26528,7 +26733,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -26555,7 +26760,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -26568,10 +26773,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -26582,7 +26787,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -26603,7 +26808,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -26621,7 +26826,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -26651,7 +26856,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>76</v>
@@ -26659,19 +26864,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>41980</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
   </sheetData>
@@ -26689,7 +26893,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -26896,7 +27100,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -26987,8 +27191,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -27014,7 +27218,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -27041,7 +27245,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -27068,7 +27272,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -27095,7 +27299,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -27121,7 +27325,7 @@
       <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -27147,7 +27351,7 @@
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -27174,7 +27378,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -27201,7 +27405,7 @@
         <f>$B$17*0.7</f>
         <v>140</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -27228,7 +27432,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -27255,7 +27459,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -27265,7 +27469,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -27282,7 +27486,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -27309,7 +27513,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -27335,7 +27539,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -27348,10 +27552,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -27361,7 +27565,7 @@
       <c r="B26" s="2">
         <v>1.9</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -27381,7 +27585,7 @@
       <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -27398,7 +27602,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -27428,7 +27632,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -27436,19 +27640,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9187.5</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -27465,8 +27668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDEEB5D-5116-4821-8582-0B2CCC024A7E}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -27673,7 +27876,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -27764,8 +27967,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>35</v>
@@ -28042,7 +28245,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -28122,7 +28325,7 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -28201,7 +28404,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -28209,19 +28412,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
-        <v>5100</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -28231,10 +28433,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -28534,8 +28736,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -28561,7 +28763,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -28588,7 +28790,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -28615,7 +28817,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -28642,7 +28844,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -28668,7 +28870,7 @@
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -28694,7 +28896,7 @@
       <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -28721,7 +28923,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -28748,7 +28950,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -28775,7 +28977,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -28802,7 +29004,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -28829,7 +29031,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -28856,7 +29058,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -28882,7 +29084,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -28899,12 +29101,12 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -28924,7 +29126,7 @@
       <c r="B27" s="2">
         <v>1.35</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -28941,7 +29143,7 @@
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -28966,6 +29168,21 @@
       </c>
       <c r="B30">
         <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B6)*75*(IF(F27="Groß",1.75,IF(F27="Mittel",1,IF(F27="Klein",0.3,1))))+F31</f>
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28983,7 +29200,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29281,8 +29498,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -29642,10 +29859,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -29717,7 +29934,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>25</v>
@@ -29725,19 +29942,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -29756,7 +29972,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29816,7 +30032,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
@@ -29845,7 +30061,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
@@ -30060,8 +30276,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -30338,7 +30554,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -30421,10 +30637,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -30500,7 +30716,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -30508,19 +30724,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -30539,7 +30754,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -30800,7 +31015,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -30876,8 +31091,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -31276,7 +31491,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>118</v>
@@ -31364,7 +31579,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>42</v>
@@ -31372,19 +31587,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9675</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>4500</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -31402,7 +31616,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -31465,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -31494,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -31523,7 +31737,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
@@ -31712,8 +31926,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -31990,7 +32204,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -32073,10 +32287,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -32152,7 +32366,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -32160,19 +32374,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4462.5</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
@@ -32190,7 +32403,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -32488,8 +32701,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -32718,7 +32931,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
@@ -32745,7 +32958,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
@@ -32766,13 +32979,13 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
@@ -32799,7 +33012,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
@@ -32826,7 +33039,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
@@ -32849,10 +33062,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -32928,7 +33141,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>52</v>
@@ -32936,19 +33149,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>11137.5</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>3000</v>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>
